--- a/data/grant.xlsx
+++ b/data/grant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nussa\Documents\Personal\data-driven cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC6710-01CA-4ED0-A8E3-F4B6D8EDAAB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA0DF6-63D6-4EF7-993B-32399796B25C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>what</t>
   </si>
@@ -37,61 +37,25 @@
     <t>why</t>
   </si>
   <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>Providing Touchable Knowledge Structure Graphic Feedback for Blind Online Learners: Tablet-Based Haptic Feedback and Paper-Based Tactile Feedback</t>
-  </si>
-  <si>
-    <t>Mar. 2016 - Aug. 2017</t>
-  </si>
-  <si>
-    <t>Developed a prototype website and mobile app for accessible knowledge structure.</t>
-  </si>
-  <si>
-    <t>Center for Online Innovation in Learning, The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>Co-led (Co-PI) a development project funded by Penn State to provide blind online learners with accessible network graphs that measure students’ knowledge structure.</t>
-  </si>
-  <si>
-    <t>Jul. 2010 - Jun. 2011</t>
-  </si>
-  <si>
-    <t>Seed Funding for Start-Up Company for the Youth, City of Seoul</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>ICE Soft: I See Everything through Assistive Technology</t>
-  </si>
-  <si>
-    <t>Funding amount: $30,000 USD.</t>
-  </si>
-  <si>
-    <t>Co-Founded and Project-Managed ICE Soft.</t>
-  </si>
-  <si>
-    <t>Worked with a team and developed an gps app for the blind.</t>
-  </si>
-  <si>
-    <t>Dissertation Research Initiation Grant</t>
-  </si>
-  <si>
-    <t>Feb. 2020 - Dec. 2020</t>
-  </si>
-  <si>
-    <t>College of Education, The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>Funding amount: $33,060.</t>
-  </si>
-  <si>
-    <t>Funding amount: $600.</t>
-  </si>
-  <si>
-    <t>Selected as one of the 10 outstanding dissertation research proposals in 2019-2020 academic year.</t>
+    <t>Funding amount: € 2,000</t>
+  </si>
+  <si>
+    <t>Paleosynthesis</t>
+  </si>
+  <si>
+    <t>Dec 2020 - present</t>
+  </si>
+  <si>
+    <t>Co-leading (Co-PI) a workshop to bring together researchers from various cultural, socioeconomic and research backgrounds to develop guidelines on ethical and fairer international collaboration</t>
+  </si>
+  <si>
+    <t>Currently in the organisation process</t>
+  </si>
+  <si>
+    <t>Diversity dynamics and crises in paleontology</t>
+  </si>
+  <si>
+    <t>Friedrich Alexander Universität</t>
   </si>
 </sst>
 </file>
@@ -932,13 +896,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -955,80 +921,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
